--- a/teamorder.xlsx
+++ b/teamorder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
   <si>
     <t>Pistons</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Mavs</t>
   </si>
   <si>
-    <t>Bulls2</t>
-  </si>
-  <si>
     <t>lakers</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>new 2</t>
   </si>
 </sst>
 </file>
@@ -496,22 +496,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -522,28 +521,22 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -551,29 +544,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -593,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -601,31 +594,22 @@
       <c r="I5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -635,11 +619,11 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -649,11 +633,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="G8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -670,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
@@ -678,14 +662,8 @@
       <c r="I9" t="s">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -710,25 +688,19 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
+      <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -745,7 +717,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -753,42 +725,33 @@
       <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="J13" t="s">
+      <c r="G13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -798,11 +761,11 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="G15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -827,81 +790,69 @@
       <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="G17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="J18" t="s">
+      <c r="G18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" t="s">
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="G19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="J20" t="s">
+      <c r="G20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="J21" t="s">
+      <c r="G21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -921,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -929,14 +880,8 @@
       <c r="I22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -956,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -964,40 +909,31 @@
       <c r="I23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="I25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="G25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1017,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
@@ -1025,64 +961,55 @@
       <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="J27" t="s">
+      <c r="G27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="H28" t="s">
+      <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="I28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="G28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="J29" t="s">
+      <c r="G29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="J30" t="s">
+      <c r="G30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1099,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
@@ -1107,25 +1034,19 @@
       <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="J31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="J32" t="s">
+      <c r="G32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>COUNTA(B3:B32)</f>
         <v>30</v>
@@ -1144,39 +1065,27 @@
       </c>
       <c r="F33">
         <f>COUNTA(F3:F32)</f>
-        <v>9</v>
-      </c>
-      <c r="G33">
-        <f>COUNTA(G3:G32)</f>
-        <v>9</v>
-      </c>
-      <c r="H33">
-        <f>COUNTA(H3:H32)</f>
         <v>15</v>
       </c>
-      <c r="I33">
-        <f>COUNTA(I3:I32)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
         <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/teamorder.xlsx
+++ b/teamorder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
   <si>
     <t>Pistons</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>new 2</t>
+  </si>
+  <si>
+    <t>Mode 6</t>
   </si>
 </sst>
 </file>
@@ -496,21 +499,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -544,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -555,7 +559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22</v>
       </c>
@@ -566,7 +570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -594,8 +598,11 @@
       <c r="I5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>28</v>
       </c>
@@ -609,7 +616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -622,8 +629,11 @@
       <c r="G7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -636,8 +646,11 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -662,8 +675,11 @@
       <c r="I9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -688,8 +704,11 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -700,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -725,8 +744,11 @@
       <c r="I12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -737,7 +759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
@@ -751,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -764,8 +786,11 @@
       <c r="G15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -790,8 +815,11 @@
       <c r="I16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -805,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -816,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29</v>
       </c>
@@ -830,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -841,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -852,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -880,8 +908,11 @@
       <c r="I22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -909,8 +940,11 @@
       <c r="I23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -919,7 +953,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
@@ -933,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -961,8 +995,11 @@
       <c r="I26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14</v>
       </c>
@@ -972,8 +1009,11 @@
       <c r="G27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -987,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
@@ -998,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1009,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1034,8 +1074,11 @@
       <c r="I31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
@@ -1046,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <f>COUNTA(B3:B32)</f>
         <v>30</v>
@@ -1067,8 +1110,12 @@
         <f>COUNTA(F3:F32)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" ref="J33" si="1">COUNTA(J2:J32)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -1086,6 +1133,9 @@
       </c>
       <c r="G34" t="s">
         <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
